--- a/EffortNetCore.Tests/data/simpleObject/SimpleObjects.xlsx
+++ b/EffortNetCore.Tests/data/simpleObject/SimpleObjects.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -40,7 +40,10 @@
     <t xml:space="preserve">GuidProperty</t>
   </si>
   <si>
-    <t xml:space="preserve">OptionalBool</t>
+    <t xml:space="preserve">OptionalBoolProperty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OptionalIntProperty</t>
   </si>
   <si>
     <t xml:space="preserve">Hello</t>
@@ -53,9 +56,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
+    <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -122,12 +126,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -148,10 +156,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -181,28 +189,36 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>3.1415</v>
       </c>
-      <c r="D2" s="1" t="b">
+      <c r="D2" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="b">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -217,6 +233,9 @@
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
